--- a/biology/Histoire de la zoologie et de la botanique/Julius_Oscar_Brefeld/Julius_Oscar_Brefeld.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julius_Oscar_Brefeld/Julius_Oscar_Brefeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Oscar Brefeld est un botaniste et un mycologue prussien, né le 19 août 1839 à Telgte en province de Westphalie et mort le 12 janvier 1925 à Schlachtensee (de).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de pharmacie, il devient, en 1863, l’assistant de Heinrich Anton de Bary (1831-1888) à l’université de Halle. Il obtient son doctorat en 1868, mais doit interrompre ses études après une sévère pneumonie. En 1873, il devient maître-assistant à l’université de Berlin. En 1876, il est agréé privat docent (il donne des cours sans être payé) à l’école forestière d’Eberswalde. En 1882, il est professeur de botanique et directeur du jardin botanique de Münster.
 Il se marie en 1896 et commence à développer un glaucome. En 1898, il devient professeur de botanique à l’université de Breslau (aujourd’hui Wrocław en Pologne). En 1900, il perd l'usage d’un œil. Deux ans plus tard, sa femme meurt et Brefeld démissionne de son poste de Breslau. En 1910, il perd totalement la vue, mais il continue néanmoins à travailler en dictant ses observations.
@@ -544,7 +558,9 @@
           <t>Sélection bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Julius Oscar Brefeld (1872-1881) Researches on the Fungi: Hefte 1-4: Botanische Untersuchungen über Schimmelpilze (Botanical investigations on Mushrooms)
 Julius Oscar Brefeld (1874) Botanische Untersuchungen über Schimmelpilze: Die Entwicklungsgeschichte von Penicillium (Botanical researches on molds The developmental history of Penicillium) 98 p.
